--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -1,57 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhordan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wamp64\www\mais1multimarcasSever\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FBBE9C-3693-4201-8615-535FCFC9AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31436468-2544-4226-BBFD-EA97DFE4B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="-255" windowWidth="16200" windowHeight="9360" xr2:uid="{3B40F0B4-2660-4B09-9071-586D13633CA1}"/>
+    <workbookView xWindow="-11640" yWindow="-2580" windowWidth="11760" windowHeight="20640" xr2:uid="{3B40F0B4-2660-4B09-9071-586D13633CA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={55DE79D1-D127-473E-ABD3-31E34224ADBE}</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{55DE79D1-D127-473E-ABD3-31E34224ADBE}">
-      <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    USE O PONTO E VIRGULA ( ; ) PARA QUEBRAR UMA LINHA!</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
@@ -80,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,10 +77,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,12 +134,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -487,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA51D94-E644-40A7-87B7-44F5308B672B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA51D94-E644-40A7-87B7-44F5308B672B}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,15 +516,17 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f>"./upload/multifotos/"&amp;F2</f>
-        <v>./upload/multifotos/</v>
-      </c>
-      <c r="G2" s="1"/>
+        <f>"./upload/"&amp;A2&amp;"-"&amp;C2&amp;"/principal"&amp;F2</f>
+        <v>./upload/-/principal</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,6 +550,5 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>